--- a/number_data.xlsx
+++ b/number_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9480" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9480" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="10" r:id="rId1"/>
@@ -49,6 +49,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -64,7 +72,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,6 +81,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,23 +102,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -141,8 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,23 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,19 +209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,19 +221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +257,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,19 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,37 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +365,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +414,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,24 +459,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,63 +500,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,97 +554,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,7 +1297,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1665,16 +1665,12 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="6.77777777777778" customWidth="1"/>
-    <col min="3" max="3" width="5.55555555555556" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="4.88888888888889" customWidth="1"/>
+    <col min="1" max="5" width="2.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -1985,17 +1981,13 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="4.44444444444444" customWidth="1"/>
-    <col min="5" max="5" width="3.22222222222222" customWidth="1"/>
+    <col min="1" max="5" width="2.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">

--- a/number_data.xlsx
+++ b/number_data.xlsx
@@ -16,9 +16,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -43,56 +43,65 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -102,6 +111,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,14 +132,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,21 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,24 +177,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +200,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,115 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,21 +420,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,8 +442,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,8 +451,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,166 +491,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -911,7 +911,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -942,19 +942,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -984,19 +984,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1005,19 +1005,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>

--- a/number_data.xlsx
+++ b/number_data.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -48,68 +48,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -117,7 +86,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,8 +100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +110,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +147,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,61 +200,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,31 +338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,66 +368,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,12 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,36 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,15 +405,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +433,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,10 +467,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -503,139 +503,139 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -911,7 +911,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
